--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/其他服务业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/其他服务业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.115816401403557</v>
+        <v>0.08956695301166399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.078866173414255</v>
+        <v>0.060864698980987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05897458869005</v>
+        <v>0.057861307627686</v>
       </c>
       <c r="E2" t="n">
-        <v>0.257041460530007</v>
+        <v>0.257246386876621</v>
       </c>
       <c r="F2" t="n">
-        <v>0.015036333625387</v>
+        <v>0.013443985959355</v>
       </c>
       <c r="G2" t="n">
-        <v>0.051296741677589</v>
+        <v>0.04753542157579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.09725575455166199</v>
+        <v>0.08591852601361601</v>
       </c>
       <c r="I2" t="n">
-        <v>0.231532818166227</v>
+        <v>0.189104825837994</v>
       </c>
       <c r="J2" t="n">
-        <v>0.069716873101551</v>
+        <v>0.059661737785442</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09652958351775801</v>
+        <v>0.080160009737633</v>
       </c>
       <c r="L2" t="n">
-        <v>0.050873206198332</v>
+        <v>0.046002617810813</v>
       </c>
       <c r="M2" t="n">
-        <v>0.093072394410328</v>
+        <v>0.09515090427701001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.099998215539765</v>
+        <v>0.103515430646198</v>
       </c>
       <c r="O2" t="n">
-        <v>0.114247189904442</v>
+        <v>0.093204016113629</v>
       </c>
       <c r="P2" t="n">
-        <v>0.051525809504008</v>
+        <v>0.047950817820427</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.022293205957324</v>
+        <v>0.021827998292495</v>
       </c>
       <c r="R2" t="n">
-        <v>0.04924745280842</v>
+        <v>0.046218191989165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08956695301166399</v>
+        <v>0.063367256511525</v>
       </c>
       <c r="C3" t="n">
-        <v>0.060864698980987</v>
+        <v>0.08379205541021401</v>
       </c>
       <c r="D3" t="n">
-        <v>0.057861307627686</v>
+        <v>0.058428069965388</v>
       </c>
       <c r="E3" t="n">
-        <v>0.257246386876621</v>
+        <v>0.230264060116915</v>
       </c>
       <c r="F3" t="n">
-        <v>0.013443985959355</v>
+        <v>0.012833124331127</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04753542157579</v>
+        <v>0.06953350549156199</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08591852601361601</v>
+        <v>0.096533610791682</v>
       </c>
       <c r="I3" t="n">
-        <v>0.189104825837994</v>
+        <v>0.167179881718166</v>
       </c>
       <c r="J3" t="n">
-        <v>0.059661737785442</v>
+        <v>0.060284865869493</v>
       </c>
       <c r="K3" t="n">
-        <v>0.080160009737633</v>
+        <v>0.058668877171402</v>
       </c>
       <c r="L3" t="n">
-        <v>0.046002617810813</v>
+        <v>0.048820807773176</v>
       </c>
       <c r="M3" t="n">
-        <v>0.09515090427701001</v>
+        <v>0.102030587037538</v>
       </c>
       <c r="N3" t="n">
-        <v>0.103515430646198</v>
+        <v>0.08741746004770599</v>
       </c>
       <c r="O3" t="n">
-        <v>0.093204016113629</v>
+        <v>0.09318256492968099</v>
       </c>
       <c r="P3" t="n">
-        <v>0.047950817820427</v>
+        <v>0.074040366039031</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.021827998292495</v>
+        <v>0.015888649827434</v>
       </c>
       <c r="R3" t="n">
-        <v>0.046218191989165</v>
+        <v>0.057923598310425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.063367256511525</v>
+        <v>0.05926479887925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08379205541021401</v>
+        <v>0.089954620190961</v>
       </c>
       <c r="D4" t="n">
-        <v>0.058428069965388</v>
+        <v>0.070176619423683</v>
       </c>
       <c r="E4" t="n">
-        <v>0.230264060116915</v>
+        <v>0.240875099687399</v>
       </c>
       <c r="F4" t="n">
-        <v>0.012833124331127</v>
+        <v>0.010839798694016</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06953350549156199</v>
+        <v>0.085162712130479</v>
       </c>
       <c r="H4" t="n">
-        <v>0.096533610791682</v>
+        <v>0.103101860739132</v>
       </c>
       <c r="I4" t="n">
-        <v>0.167179881718166</v>
+        <v>0.173522915175041</v>
       </c>
       <c r="J4" t="n">
-        <v>0.060284865869493</v>
+        <v>0.045580110414359</v>
       </c>
       <c r="K4" t="n">
-        <v>0.058668877171402</v>
+        <v>0.054231520745492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.048820807773176</v>
+        <v>0.050000197977752</v>
       </c>
       <c r="M4" t="n">
-        <v>0.102030587037538</v>
+        <v>0.109625694248878</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08741746004770599</v>
+        <v>0.055288279438375</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09318256492968099</v>
+        <v>0.07875512224027301</v>
       </c>
       <c r="P4" t="n">
-        <v>0.074040366039031</v>
+        <v>0.076451090858062</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.015888649827434</v>
+        <v>0.014874630812507</v>
       </c>
       <c r="R4" t="n">
-        <v>0.057923598310425</v>
+        <v>0.074378266349475</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05926479887925</v>
+        <v>0.010149656100688</v>
       </c>
       <c r="C5" t="n">
-        <v>0.089954620190961</v>
+        <v>0.177387005185259</v>
       </c>
       <c r="D5" t="n">
-        <v>0.070176619423683</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.240875099687399</v>
-      </c>
+        <v>0.08514927097067999</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.010839798694016</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.085162712130479</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.103101860739132</v>
-      </c>
+        <v>0.006706459490519</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.173522915175041</v>
+        <v>0.138190303494894</v>
       </c>
       <c r="J5" t="n">
-        <v>0.045580110414359</v>
+        <v>0.206883689977004</v>
       </c>
       <c r="K5" t="n">
-        <v>0.054231520745492</v>
+        <v>0.048296436678483</v>
       </c>
       <c r="L5" t="n">
-        <v>0.050000197977752</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.109625694248878</v>
-      </c>
+        <v>0.044808128370902</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.055288279438375</v>
+        <v>0.055374457989719</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07875512224027301</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.076451090858062</v>
-      </c>
+        <v>0.057848856023109</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.014874630812507</v>
+        <v>0.009388415879467</v>
       </c>
       <c r="R5" t="n">
-        <v>0.074378266349475</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.010149656100688</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.177387005185259</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.08514927097067999</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.006706459490519</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.138190303494894</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.206883689977004</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.048296436678483</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.044808128370902</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.055374457989719</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.057848856023109</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.009388415879467</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.103851468561937</v>
       </c>
     </row>
